--- a/public/excel/sample.xlsx
+++ b/public/excel/sample.xlsx
@@ -759,13 +759,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="34" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,13 +783,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="41" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,10 +807,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="45" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="46" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="47" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
